--- a/public/routes.xlsx
+++ b/public/routes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\Hackthon4-main\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE66E17A-D2C6-400D-B0DE-E5D0AB1BC005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E53082-22B7-472E-B108-903E5350FB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C3D4156-20B0-4900-82EE-EC0C8870DE30}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="252">
   <si>
     <t>From (Departure)</t>
   </si>
@@ -51,33 +51,18 @@
     <t>9B</t>
   </si>
   <si>
-    <t>J.M. Road</t>
-  </si>
-  <si>
     <t>9A</t>
   </si>
   <si>
-    <t>Urva Stores</t>
-  </si>
-  <si>
     <t>6C</t>
   </si>
   <si>
-    <t>Shaktinagar</t>
-  </si>
-  <si>
     <t>6B</t>
   </si>
   <si>
     <t>6A</t>
   </si>
   <si>
-    <t>Moodushedde</t>
-  </si>
-  <si>
-    <t>Kuthethoor</t>
-  </si>
-  <si>
     <t>Moodushedde, Vamanjuru, Kudpu Temple, Govt. Dairy Bikarnakatte, Nantoor, K.P.T. Yeyyady, Maryhill, Bondel, Kavoor, Kulur, Panamboor, Chitrapur Temple, Hosabettu, Suratkal Chokkabettu, Kaatipalla, Mangalapete, Kuthethoor</t>
   </si>
   <si>
@@ -87,87 +72,39 @@
     <t>Padil Railway Station</t>
   </si>
   <si>
-    <t>Kaatipalla</t>
-  </si>
-  <si>
     <t>Padil Railway Station, KPT, Bondel, Kavoor, Kulur, Kaikamba, Kaatipalla</t>
   </si>
   <si>
-    <t>Kodikal</t>
-  </si>
-  <si>
-    <t>Kankanadi</t>
-  </si>
-  <si>
-    <t>Anandanagar</t>
-  </si>
-  <si>
-    <t>Gorigudde</t>
-  </si>
-  <si>
     <t>Anandanagar, Nandanapura, Malemar- Ladyhill, Bejai Museum, Kadri Temple, Kankanadi, Valencia, Gorigudde</t>
   </si>
   <si>
-    <t>Surathkal</t>
-  </si>
-  <si>
-    <t>Pavoor</t>
-  </si>
-  <si>
     <t>54A</t>
   </si>
   <si>
-    <t>Thaudugoli</t>
-  </si>
-  <si>
     <t>53A</t>
   </si>
   <si>
     <t>Kankanady</t>
   </si>
   <si>
-    <t>Tibar</t>
-  </si>
-  <si>
     <t>Kankanady – Pumpwell – Nanthur – Kadri – Kuloor – Surathkal – Chokkabettu – Katipalla – Soorinje – Tibar.</t>
   </si>
   <si>
     <t>51A</t>
   </si>
   <si>
-    <t>Inoli</t>
-  </si>
-  <si>
-    <t>Konaje</t>
-  </si>
-  <si>
-    <t>Morgan Gate</t>
-  </si>
-  <si>
     <t>4C</t>
   </si>
   <si>
-    <t>Neermarga</t>
-  </si>
-  <si>
     <t>4A</t>
   </si>
   <si>
-    <t>Merlapadavu</t>
-  </si>
-  <si>
     <t>48A</t>
   </si>
   <si>
-    <t>Bajpe</t>
-  </si>
-  <si>
     <t>47C</t>
   </si>
   <si>
-    <t>Kattalsara</t>
-  </si>
-  <si>
     <t>47B</t>
   </si>
   <si>
@@ -180,99 +117,48 @@
     <t>45H</t>
   </si>
   <si>
-    <t>Madhyapadavu</t>
-  </si>
-  <si>
     <t>45G</t>
   </si>
   <si>
-    <t>Janatha Colony</t>
-  </si>
-  <si>
     <t>45F</t>
   </si>
   <si>
-    <t>Kaikamba</t>
-  </si>
-  <si>
     <t>45E</t>
   </si>
   <si>
-    <t>Kaithakurneri</t>
-  </si>
-  <si>
     <t>45D</t>
   </si>
   <si>
-    <t>Kuthethur</t>
-  </si>
-  <si>
     <t>45C</t>
   </si>
   <si>
     <t>45B</t>
   </si>
   <si>
-    <t>Chokkabettu</t>
-  </si>
-  <si>
     <t>45A</t>
   </si>
   <si>
-    <t>Katipalla</t>
-  </si>
-  <si>
     <t>44D</t>
   </si>
   <si>
-    <t>Kotepura</t>
-  </si>
-  <si>
     <t>44C</t>
   </si>
   <si>
-    <t>Ullal Launch Jetty</t>
-  </si>
-  <si>
     <t>44B</t>
   </si>
   <si>
-    <t>Eliaradavu</t>
-  </si>
-  <si>
     <t>44A</t>
   </si>
   <si>
-    <t>Someshwar</t>
-  </si>
-  <si>
-    <t>Kinya</t>
-  </si>
-  <si>
-    <t>Talapady</t>
-  </si>
-  <si>
     <t>41A</t>
   </si>
   <si>
-    <t>Chelairpadavu</t>
-  </si>
-  <si>
-    <t>Kulshekar Chowki</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
-    <t>Ulaibettu</t>
-  </si>
-  <si>
     <t>3C</t>
   </si>
   <si>
-    <t>Mangaldevi</t>
-  </si>
-  <si>
     <t>Mangaldevi, Valencia, Nantoor, Kudpu Temple, Mangala Jyoti, Moodushedde</t>
   </si>
   <si>
@@ -288,39 +174,18 @@
     <t>3A</t>
   </si>
   <si>
-    <t>Padil</t>
-  </si>
-  <si>
-    <t>Aakashbhavan</t>
-  </si>
-  <si>
     <t>31B</t>
   </si>
   <si>
-    <t>Dombel</t>
-  </si>
-  <si>
     <t>31A</t>
   </si>
   <si>
-    <t>Ashoknagar</t>
-  </si>
-  <si>
-    <t>Shediguri</t>
-  </si>
-  <si>
     <t>30B</t>
   </si>
   <si>
-    <t>Adyar Launch Jetty</t>
-  </si>
-  <si>
     <t>30A</t>
   </si>
   <si>
-    <t>Adyar</t>
-  </si>
-  <si>
     <t>2F</t>
   </si>
   <si>
@@ -336,45 +201,24 @@
     <t>2D</t>
   </si>
   <si>
-    <t>Parkodi</t>
-  </si>
-  <si>
     <t>2C</t>
   </si>
   <si>
-    <t>Jokatte</t>
-  </si>
-  <si>
     <t>2B</t>
   </si>
   <si>
-    <t>Bengare</t>
-  </si>
-  <si>
     <t>Bengare, Tannirbavi, Kulur, Panamboor, Jokatta, Kaana, Port Temple, Bajpe</t>
   </si>
   <si>
     <t>2A</t>
   </si>
   <si>
-    <t>Sasihitlu</t>
-  </si>
-  <si>
     <t>27A</t>
   </si>
   <si>
-    <t>Mulihitlu</t>
-  </si>
-  <si>
-    <t>Faisalnagar</t>
-  </si>
-  <si>
     <t>22A</t>
   </si>
   <si>
-    <t>Mukka</t>
-  </si>
-  <si>
     <t>1C</t>
   </si>
   <si>
@@ -384,27 +228,15 @@
     <t>1A</t>
   </si>
   <si>
-    <t>Thannir Bavi</t>
-  </si>
-  <si>
-    <t>Pacchanady</t>
-  </si>
-  <si>
     <t>17B</t>
   </si>
   <si>
-    <t>Kunjathbail</t>
-  </si>
-  <si>
     <t>17A</t>
   </si>
   <si>
     <t>16A</t>
   </si>
   <si>
-    <t>Sulthan Battery</t>
-  </si>
-  <si>
     <t>15B</t>
   </si>
   <si>
@@ -423,9 +255,6 @@
     <t>14C</t>
   </si>
   <si>
-    <t>Bondel</t>
-  </si>
-  <si>
     <t>Mangaladevi – Morgan Gate – Attavara – Yemmekere – Nandigudda – Kankanady – Mallikatte – Kadri – Nanthur – Akashavani – K.P.T – Yeyyadi – Konchadi – Padangady – Bondel.</t>
   </si>
   <si>
@@ -444,42 +273,24 @@
     <t>13D</t>
   </si>
   <si>
-    <t>Beggari Colony</t>
-  </si>
-  <si>
     <t>13C</t>
   </si>
   <si>
     <t>13A</t>
   </si>
   <si>
-    <t>Kottara (Infosys)</t>
-  </si>
-  <si>
     <t>12B</t>
   </si>
   <si>
-    <t>Kolthamajal</t>
-  </si>
-  <si>
     <t>12A</t>
   </si>
   <si>
-    <t>Polali</t>
-  </si>
-  <si>
     <t>11B</t>
   </si>
   <si>
-    <t>Jalligudde</t>
-  </si>
-  <si>
     <t>11A</t>
   </si>
   <si>
-    <t>Kannurbettu</t>
-  </si>
-  <si>
     <t>10B</t>
   </si>
   <si>
@@ -504,18 +315,6 @@
     <t>State Bank Bus Stand to Urva Stores</t>
   </si>
   <si>
-    <t>State Bank Bus Stand – Jyothi – Bunts Hostel – Mallikatte – Kadri – Bikkarnakatta – Kulshekar – Shaktinagar.</t>
-  </si>
-  <si>
-    <t>State Bank Bus Stand to Shaktinagar</t>
-  </si>
-  <si>
-    <t>State Bank Bus Stand – Falnir – Kankanady – Bendoorwell – Mallikatte – Kadri – Bikkarnakatta – Kulshekar – Shaktinagar.</t>
-  </si>
-  <si>
-    <t>State Bank Bus Stand – Jyothi – Bendoorwell – Mallikatte – Kadri – Bikkarnakatta – Kulshekar – Shaktinagar.</t>
-  </si>
-  <si>
     <t>State Bank Bus Stand – K.S. Rao Road – PVS – Empire Mall – Ballalbagh – Lalbagh – Ladyhill – Kuloor – Baikampady – Chitrapur – Hosabettu – Surathkal.</t>
   </si>
   <si>
@@ -775,6 +574,222 @@
   </si>
   <si>
     <t>Kodikal, Kodikal Cross, Lady Hill, Bejai Museum, Kadri Temple, pumpwell, padil, Kankanadi</t>
+  </si>
+  <si>
+    <t>State Bank Bus Stand – Jyothi – Bendoorwell – Mallikatte – Kadri – Bikkarnakatta – Kulshekar – shakthinagar mangalore.</t>
+  </si>
+  <si>
+    <t>State Bank Bus Stand to shakthinagar mangalore</t>
+  </si>
+  <si>
+    <t>State Bank Bus Stand – Falnir – Kankanady – Bendoorwell – Mallikatte – Kadri – Bikkarnakatta – Kulshekar – shakthinagar mangalore.</t>
+  </si>
+  <si>
+    <t>State Bank Bus Stand – Jyothi – Bunts Hostel – Mallikatte – Kadri – Bikkarnakatta – Kulshekar – shakthinagar mangalore.</t>
+  </si>
+  <si>
+    <t>J.M. Road , Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>J.M. Road, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kunjathbail, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Mukka, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Moodushedde, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kulshekar Chowki, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Morgan Gate, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Urva Stores, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Surathkal, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Morgans Gate, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Sulthan Battery, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Pacchanady, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Neermarga, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Bajpe, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Faisalnagar, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Mangaladevi, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Padil, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Shediguri, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Aakashbhavan, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Talapady, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kinya, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Katipalla, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Konaje, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Tibar, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Thaudugoli, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Pavoor, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Gorigudde, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kuthethoor, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kankanady, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kodikal, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Anandanagar, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Adyar Launch Jetty, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kannurbettu, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Jalligudde, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Polali, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kolthamajal, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kottara (Infosys), Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Bondel, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Beggari Colony, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Chelairpadavu, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Thannir Bavi , Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kodikal , Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Mulihitlu, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Sasihitlu, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Bengare, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Jokatte, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Parkodi, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Adyar, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Mangaldevi, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Dombel, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Ashoknagar, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Ulaibettu, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Someshwar, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Ullal Launch Jetty, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Eliarpadavu, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Chokkabettu, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kotepura, ullala, Karnataka</t>
+  </si>
+  <si>
+    <t>Chokkabettu, ullala, Karnataka</t>
+  </si>
+  <si>
+    <t>Kaikamba, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kuthethur, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kaithakurneri, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Janatha Colony, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Madhyapadavu, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kattalsara, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Merlapadavu, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Inoli, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Kaatipalla, Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>shakthinagar mangalore, Mangalore, Karnataka</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21B0232-6840-45D1-BDDE-7397E49F0FE9}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
@@ -1223,7 +1238,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1243,400 +1258,400 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="30.6">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="21">
       <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.6">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="30.6">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="40.799999999999997">
-      <c r="A8" s="3">
-        <v>64</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="21">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="21">
       <c r="A10" s="3">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="21">
+    <row r="11" spans="1:5" ht="40.799999999999997">
       <c r="A11" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="30.6">
       <c r="A12" s="3">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="30.6">
+    <row r="13" spans="1:5" ht="40.799999999999997">
       <c r="A13" s="3">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="30.6">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
+    <row r="14" spans="1:5" ht="21">
+      <c r="A14" s="3">
+        <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="40.799999999999997">
+      <c r="A15" s="3">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="30.6">
+      <c r="A16" s="3">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="30.6">
+      <c r="A17" s="3">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21">
+      <c r="A18" s="3">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="21">
+      <c r="A19" s="3">
         <v>27</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="30.6">
-      <c r="A15" s="3">
-        <v>54</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="21">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="40.799999999999997">
-      <c r="A17" s="3">
-        <v>53</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="30.6">
-      <c r="A18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="30.6">
-      <c r="A19" s="3">
-        <v>51</v>
-      </c>
       <c r="B19" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="21">
       <c r="A20" s="3">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30.6">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>144</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="21">
+      <c r="A21" s="3">
+        <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="21">
+      <c r="A22" s="3">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="40.799999999999997">
+      <c r="A23" s="3">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="21">
+      <c r="A24" s="3">
         <v>37</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30.6">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="40.799999999999997">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="30.6">
-      <c r="A24" s="3">
-        <v>48</v>
-      </c>
       <c r="B24" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="51">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5" ht="21">
+      <c r="A25" s="3">
         <v>42</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="21">
+      <c r="A26" s="3">
         <v>43</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="40.799999999999997">
-      <c r="A26" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="B26" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="40.799999999999997">
+      <c r="A27" s="3">
         <v>45</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="40.799999999999997">
-      <c r="A27" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="B27" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E27" s="4"/>
     </row>
@@ -1645,1120 +1660,1120 @@
         <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="40.799999999999997">
-      <c r="A29" s="3" t="s">
-        <v>47</v>
+    <row r="29" spans="1:5" ht="30.6">
+      <c r="A29" s="3">
+        <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="40.799999999999997">
-      <c r="A30" s="3" t="s">
-        <v>49</v>
+    <row r="30" spans="1:5" ht="30.6">
+      <c r="A30" s="3">
+        <v>51</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="40.799999999999997">
-      <c r="A31" s="3" t="s">
-        <v>51</v>
+      <c r="A31" s="3">
+        <v>53</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="30.6">
+      <c r="A32" s="3">
+        <v>54</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="30.6">
+      <c r="A33" s="3">
+        <v>55</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="30.6">
+      <c r="A34" s="3">
+        <v>59</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="21">
+      <c r="A35" s="3">
+        <v>60</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="21">
+      <c r="A36" s="3">
+        <v>61</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="40.799999999999997">
-      <c r="A32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" ht="40.799999999999997">
-      <c r="A33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" ht="40.799999999999997">
-      <c r="A34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" ht="40.799999999999997">
-      <c r="A35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="40.799999999999997">
-      <c r="A36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="40.799999999999997">
       <c r="A37" s="3">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="21">
+    <row r="38" spans="1:5" ht="30.6">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="21">
+    <row r="39" spans="1:5" ht="30.6">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="21">
       <c r="A40" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="21">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="21">
-      <c r="A42" s="3">
-        <v>43</v>
+    <row r="42" spans="1:5" ht="30.6">
+      <c r="A42" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="21">
-      <c r="A43" s="3">
-        <v>42</v>
+    <row r="43" spans="1:5" ht="30.6">
+      <c r="A43" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="30.6">
+    <row r="44" spans="1:5" ht="21">
       <c r="A44" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="30.6">
-      <c r="A45" s="3">
-        <v>4</v>
+      <c r="A45" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="21">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="40.799999999999997">
       <c r="A46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="30.6">
+      <c r="A47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" ht="30.6">
+      <c r="A48" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="21">
-      <c r="A47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" ht="21">
-      <c r="A48" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="B48" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="30.6">
       <c r="A49" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="21">
-      <c r="A50" s="3">
-        <v>37</v>
+    <row r="50" spans="1:5" ht="40.799999999999997">
+      <c r="A50" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="40.799999999999997">
-      <c r="A51" s="3">
-        <v>33</v>
+      <c r="A51" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" ht="21">
+    <row r="52" spans="1:5" ht="51">
       <c r="A52" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" ht="30.6">
+    <row r="53" spans="1:5" ht="21">
       <c r="A53" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" ht="21">
-      <c r="A54" s="3">
-        <v>31</v>
+    <row r="54" spans="1:5" ht="40.799999999999997">
+      <c r="A54" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="30.6">
+    <row r="55" spans="1:5" ht="40.799999999999997">
       <c r="A55" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="30.6">
+    <row r="56" spans="1:5" ht="21">
       <c r="A56" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E56" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="21">
-      <c r="A57" s="3">
-        <v>30</v>
+      <c r="A57" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" ht="30.6">
-      <c r="A58" s="3">
-        <v>3</v>
+        <v>155</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="21">
+      <c r="A58" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" ht="21">
+    <row r="59" spans="1:5" ht="30.6">
       <c r="A59" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>97</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="21">
       <c r="A60" s="3" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>97</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="21">
       <c r="A61" s="3" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="21">
       <c r="A62" s="3" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>208</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="21">
       <c r="A63" s="3" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="21">
       <c r="A64" s="3" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="21">
-      <c r="A65" s="3">
-        <v>29</v>
+      <c r="A65" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E65" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="21">
       <c r="A66" s="3" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" ht="21">
-      <c r="A67" s="3">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30.6">
+      <c r="A67" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" ht="21">
-      <c r="A68" s="3">
-        <v>23</v>
+    <row r="68" spans="1:5" ht="30.6">
+      <c r="A68" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" ht="30.6">
       <c r="A69" s="3" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" ht="21">
+      <c r="A70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" ht="30.6">
+      <c r="A71" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" ht="30.6">
-      <c r="A70" s="3">
-        <v>22</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30.6">
-      <c r="A71" s="3">
-        <v>21</v>
-      </c>
       <c r="B71" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="21">
-      <c r="A72" s="3">
-        <v>2</v>
+      <c r="A72" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>220</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="21">
       <c r="A73" s="3" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="21">
       <c r="A74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30.6">
+      <c r="A75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" ht="21">
+      <c r="A76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" ht="21">
+      <c r="A77" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" ht="21">
+      <c r="A78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" ht="21">
+      <c r="A79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" ht="40.799999999999997">
+      <c r="A80" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" ht="40.799999999999997">
+      <c r="A81" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" ht="40.799999999999997">
+      <c r="A82" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" ht="40.799999999999997">
+      <c r="A83" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="21">
-      <c r="A75" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="40.799999999999997">
-      <c r="A76" s="3">
-        <v>19</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" ht="21">
-      <c r="A77" s="3">
-        <v>18</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" ht="40.799999999999997">
-      <c r="A78" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" ht="40.799999999999997">
-      <c r="A79" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" ht="40.799999999999997">
-      <c r="A80" s="3">
-        <v>17</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" ht="21">
-      <c r="A81" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" ht="30.6">
-      <c r="A82" s="3">
-        <v>16</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" ht="51">
-      <c r="A83" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="40.799999999999997">
       <c r="A84" s="3" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="40.799999999999997">
-      <c r="A85" s="3">
-        <v>15</v>
+      <c r="A85" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="40.799999999999997">
       <c r="A86" s="3" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" ht="30.6">
+    <row r="87" spans="1:5" ht="40.799999999999997">
       <c r="A87" s="3" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="1:5" ht="30.6">
+    <row r="88" spans="1:5" ht="40.799999999999997">
       <c r="A88" s="3" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>232</v>
+        <v>109</v>
       </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" ht="30.6">
+    <row r="89" spans="1:5" ht="40.799999999999997">
       <c r="A89" s="3" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" ht="40.799999999999997">
+    <row r="90" spans="1:5" ht="51">
       <c r="A90" s="3" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" ht="30.6">
+    <row r="91" spans="1:5" ht="40.799999999999997">
       <c r="A91" s="3" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="21">
+        <v>105</v>
+      </c>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" ht="30.6">
       <c r="A92" s="3" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5" ht="21">
-      <c r="A93" s="3">
-        <v>13</v>
+    <row r="93" spans="1:5" ht="30.6">
+      <c r="A93" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E93" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="30.6">
       <c r="A94" s="3" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="1:5" ht="30.6">
+    <row r="95" spans="1:5" ht="21">
       <c r="A95" s="3" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5" ht="21">
+    <row r="96" spans="1:5" ht="30.6">
       <c r="A96" s="3" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="21">
       <c r="A97" s="3" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5" ht="30.6">
+    <row r="98" spans="1:5" ht="28.8">
       <c r="A98" s="3" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E98" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="30.6">
       <c r="A99" s="3" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" ht="21">
-      <c r="A100" s="3">
-        <v>1</v>
+        <v>182</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="28.8">
+      <c r="A100" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2796,29 +2811,29 @@
       <c r="A111" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E1">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E100">
+    <sortCondition ref="A2:A100"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="https://goo.gl/maps/qewHr" xr:uid="{4E205964-5563-441F-B614-5F2B43C490CE}"/>
-    <hyperlink ref="E5" r:id="rId2" display="https://goo.gl/maps/dPf5X" xr:uid="{D3FD97D6-6132-46CE-961E-C29B0D1A74E9}"/>
-    <hyperlink ref="E6" r:id="rId3" display="https://goo.gl/maps/dPf5X" xr:uid="{0AFC6066-0397-419A-A50D-98410BB7E0CC}"/>
-    <hyperlink ref="E7" r:id="rId4" display="https://goo.gl/maps/dPf5X" xr:uid="{65177EA3-4D05-46C4-9839-2B6235F34EFD}"/>
-    <hyperlink ref="E20" r:id="rId5" display="https://goo.gl/maps/bqzvE" xr:uid="{D5ADEDF6-0D1D-4BD3-B12F-05CA3DF16C0B}"/>
-    <hyperlink ref="E21" r:id="rId6" display="https://goo.gl/maps/XGIix" xr:uid="{085ADF79-3950-4AA4-8218-B3CF10AE60DE}"/>
-    <hyperlink ref="E45" r:id="rId7" display="https://goo.gl/maps/rSpdW" xr:uid="{49D56075-78AF-47ED-AA28-14BCF5FA23C8}"/>
-    <hyperlink ref="E46" r:id="rId8" display="https://goo.gl/maps/x81nv" xr:uid="{72A796D0-A9E5-4015-8B11-60C9A3EE30F8}"/>
-    <hyperlink ref="E59" r:id="rId9" display="https://goo.gl/maps/uwvRo" xr:uid="{35EC5984-250B-4CCB-B286-E15FABB3B4F3}"/>
-    <hyperlink ref="E60" r:id="rId10" display="http://goo.gl/maps/5Lk1r" xr:uid="{CDD1B1A1-6377-471E-B6C6-DC40EF2EE8CC}"/>
-    <hyperlink ref="E61" r:id="rId11" display="http://goo.gl/maps/KEuC5" xr:uid="{EC58774C-60E2-4905-A915-A04D1FAAA18F}"/>
-    <hyperlink ref="E62" r:id="rId12" display="http://goo.gl/maps/EXziR" xr:uid="{EFF715AF-867B-44B3-921D-920D628AD939}"/>
-    <hyperlink ref="E64" r:id="rId13" display="http://goo.gl/maps/5FrvR" xr:uid="{C49B34F1-E0C1-4076-A53B-F087B87D13FC}"/>
-    <hyperlink ref="E70" r:id="rId14" display="http://goo.gl/maps/VfyW3" xr:uid="{0C770E0A-1A0E-4212-B33F-13AA782AB6E6}"/>
-    <hyperlink ref="E72" r:id="rId15" display="http://goo.gl/maps/txG31" xr:uid="{8020D020-1842-4454-A0C7-1E92853180FD}"/>
-    <hyperlink ref="E74" r:id="rId16" display="http://goo.gl/maps/oGO4p" xr:uid="{F31395F1-C877-434D-BB4A-15048F40155F}"/>
-    <hyperlink ref="E75" r:id="rId17" display="http://goo.gl/maps/ZAOHA" xr:uid="{A182CFD6-A670-422D-A377-2D8D70E62A2D}"/>
-    <hyperlink ref="E91" r:id="rId18" display="http://binged.it/1gAN6CO" xr:uid="{54020768-AA24-41DA-9B7B-F3822B596CC3}"/>
-    <hyperlink ref="E100" r:id="rId19" display="http://goo.gl/maps/ioj5J" xr:uid="{00F1D5CD-B983-4244-90F7-94A4C95D231D}"/>
+    <hyperlink ref="E9" r:id="rId1" display="https://goo.gl/maps/qewHr" xr:uid="{4E205964-5563-441F-B614-5F2B43C490CE}"/>
+    <hyperlink ref="E100" r:id="rId2" display="https://goo.gl/maps/dPf5X" xr:uid="{D3FD97D6-6132-46CE-961E-C29B0D1A74E9}"/>
+    <hyperlink ref="E99" r:id="rId3" display="https://goo.gl/maps/dPf5X" xr:uid="{0AFC6066-0397-419A-A50D-98410BB7E0CC}"/>
+    <hyperlink ref="E98" r:id="rId4" display="https://goo.gl/maps/dPf5X" xr:uid="{65177EA3-4D05-46C4-9839-2B6235F34EFD}"/>
+    <hyperlink ref="E8" r:id="rId5" display="https://goo.gl/maps/bqzvE" xr:uid="{D5ADEDF6-0D1D-4BD3-B12F-05CA3DF16C0B}"/>
+    <hyperlink ref="E93" r:id="rId6" display="https://goo.gl/maps/XGIix" xr:uid="{085ADF79-3950-4AA4-8218-B3CF10AE60DE}"/>
+    <hyperlink ref="E7" r:id="rId7" display="https://goo.gl/maps/rSpdW" xr:uid="{49D56075-78AF-47ED-AA28-14BCF5FA23C8}"/>
+    <hyperlink ref="E74" r:id="rId8" display="https://goo.gl/maps/x81nv" xr:uid="{72A796D0-A9E5-4015-8B11-60C9A3EE30F8}"/>
+    <hyperlink ref="E66" r:id="rId9" display="https://goo.gl/maps/uwvRo" xr:uid="{35EC5984-250B-4CCB-B286-E15FABB3B4F3}"/>
+    <hyperlink ref="E65" r:id="rId10" display="http://goo.gl/maps/5Lk1r" xr:uid="{CDD1B1A1-6377-471E-B6C6-DC40EF2EE8CC}"/>
+    <hyperlink ref="E64" r:id="rId11" display="http://goo.gl/maps/KEuC5" xr:uid="{EC58774C-60E2-4905-A915-A04D1FAAA18F}"/>
+    <hyperlink ref="E63" r:id="rId12" display="http://goo.gl/maps/EXziR" xr:uid="{EFF715AF-867B-44B3-921D-920D628AD939}"/>
+    <hyperlink ref="E61" r:id="rId13" display="http://goo.gl/maps/5FrvR" xr:uid="{C49B34F1-E0C1-4076-A53B-F087B87D13FC}"/>
+    <hyperlink ref="E17" r:id="rId14" display="http://goo.gl/maps/VfyW3" xr:uid="{0C770E0A-1A0E-4212-B33F-13AA782AB6E6}"/>
+    <hyperlink ref="E5" r:id="rId15" display="http://goo.gl/maps/txG31" xr:uid="{8020D020-1842-4454-A0C7-1E92853180FD}"/>
+    <hyperlink ref="E57" r:id="rId16" display="http://goo.gl/maps/oGO4p" xr:uid="{F31395F1-C877-434D-BB4A-15048F40155F}"/>
+    <hyperlink ref="E56" r:id="rId17" display="http://goo.gl/maps/ZAOHA" xr:uid="{A182CFD6-A670-422D-A377-2D8D70E62A2D}"/>
+    <hyperlink ref="E45" r:id="rId18" display="http://binged.it/1gAN6CO" xr:uid="{54020768-AA24-41DA-9B7B-F3822B596CC3}"/>
+    <hyperlink ref="E4" r:id="rId19" display="http://goo.gl/maps/ioj5J" xr:uid="{00F1D5CD-B983-4244-90F7-94A4C95D231D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
